--- a/datf_core/test/testprotocol/transposetestprotocol.xlsx
+++ b/datf_core/test/testprotocol/transposetestprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAECBA3-84D4-42A4-9164-B2D8EAEE6803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FB641F-861B-4D52-AB65-BBA7F556F756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="133">
   <si>
     <t>Sno.</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>teradata</t>
+  </si>
+  <si>
+    <t>dataprofilelimit</t>
   </si>
 </sst>
 </file>
@@ -968,11 +971,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,9 +1015,10 @@
     <col min="33" max="33" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1120,8 +1124,11 @@
       <c r="AI1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1173,8 +1180,11 @@
       <c r="AI2" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1226,8 +1236,11 @@
       <c r="AI3" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1279,8 +1292,11 @@
       <c r="AI4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1332,8 +1348,11 @@
       <c r="AI5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1385,8 +1404,11 @@
       <c r="AI6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1438,8 +1460,11 @@
       <c r="AI7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>9</v>
       </c>
@@ -1493,8 +1518,11 @@
       <c r="AI8" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>10</v>
       </c>
@@ -1546,8 +1574,11 @@
       <c r="AI9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>11</v>
       </c>
@@ -1637,8 +1668,11 @@
       <c r="AI10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>12</v>
       </c>
@@ -1726,8 +1760,11 @@
       <c r="AI11" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>13</v>
       </c>
@@ -1817,8 +1854,11 @@
       <c r="AI12" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>14</v>
       </c>
@@ -1908,8 +1948,11 @@
       <c r="AI13" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>15</v>
       </c>
@@ -1985,8 +2028,11 @@
       <c r="AI14" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>16</v>
       </c>
@@ -2062,8 +2108,11 @@
       <c r="AI15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>23</v>
       </c>
@@ -2140,8 +2189,11 @@
       <c r="AI16" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>24</v>
       </c>
@@ -2217,8 +2269,11 @@
       <c r="AI17" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>27</v>
       </c>
@@ -2276,8 +2331,11 @@
       <c r="AI18" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>30</v>
       </c>
@@ -2335,33 +2393,36 @@
       <c r="AI19" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="4"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="4"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="4"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="4"/>
       <c r="C25" s="6"/>
